--- a/train_data.xlsx
+++ b/train_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dim-Dim\MyData\Common Work Place\Projects\PsyChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5872ECE-F3DC-4461-8967-B84989DB4715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8815F-5EEE-4027-993B-D410B46F21F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$F$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$F$261</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="155">
   <si>
     <t>answer</t>
   </si>
@@ -138,9 +149,6 @@
     <t>уважает учителей, любит и много учится</t>
   </si>
   <si>
-    <t>любит учиться и много учится</t>
-  </si>
-  <si>
     <t>много знает</t>
   </si>
   <si>
@@ -156,139 +164,412 @@
     <t>пропускает уроки</t>
   </si>
   <si>
+    <t>ходит на руках</t>
+  </si>
+  <si>
+    <t>стремится к знаниям</t>
+  </si>
+  <si>
+    <t>не стремится к знаниям</t>
+  </si>
+  <si>
+    <t>любит читать</t>
+  </si>
+  <si>
+    <t>не любит читать</t>
+  </si>
+  <si>
+    <t>хорошо учится</t>
+  </si>
+  <si>
+    <t>не знаю</t>
+  </si>
+  <si>
+    <t>обычный человек</t>
+  </si>
+  <si>
+    <t>ходит в школу</t>
+  </si>
+  <si>
+    <t>носит школьную форму</t>
+  </si>
+  <si>
+    <t>ходит в чистой одежде</t>
+  </si>
+  <si>
+    <t>спит ночью</t>
+  </si>
+  <si>
+    <t>не отвлекается на игры</t>
+  </si>
+  <si>
+    <t>не пропускает школьные уроки</t>
+  </si>
+  <si>
+    <t>прогуливает школьные уроки</t>
+  </si>
+  <si>
+    <t>не любит хулиганов</t>
+  </si>
+  <si>
+    <t>чистит обувь перед школой</t>
+  </si>
+  <si>
+    <t>любит изучать что-то новое</t>
+  </si>
+  <si>
+    <t>не любит изучать что-то новое</t>
+  </si>
+  <si>
+    <t>любит спорт</t>
+  </si>
+  <si>
+    <t>grade2</t>
+  </si>
+  <si>
+    <t>grade3</t>
+  </si>
+  <si>
+    <t>grade4</t>
+  </si>
+  <si>
+    <t>не обычный человек</t>
+  </si>
+  <si>
+    <t>много делает для школы, учителей и одноклассников</t>
+  </si>
+  <si>
+    <t>мало делает для школы, учителей и одноклассников</t>
+  </si>
+  <si>
+    <t>хорошо знает математику</t>
+  </si>
+  <si>
+    <t>плохо с математикой</t>
+  </si>
+  <si>
+    <t>любит изучать литературу</t>
+  </si>
+  <si>
+    <t>любит изучать физику</t>
+  </si>
+  <si>
+    <t>не любит учить физику</t>
+  </si>
+  <si>
+    <t>отказывается учиться</t>
+  </si>
+  <si>
+    <t>посещает все уроки</t>
+  </si>
+  <si>
+    <t>уважает учителей</t>
+  </si>
+  <si>
+    <t>не уважает учителей</t>
+  </si>
+  <si>
+    <t>дружит с одноклассниками</t>
+  </si>
+  <si>
+    <t>не дружит с одноклассниками</t>
+  </si>
+  <si>
+    <t>02. Я думаю, что плохой ученик – это тот, кто...</t>
+  </si>
+  <si>
+    <t>мало читает и учится на двойки и тройки</t>
+  </si>
+  <si>
+    <t>плохо учиться</t>
+  </si>
+  <si>
+    <t>мало читает литературу</t>
+  </si>
+  <si>
+    <t>мало учится</t>
+  </si>
+  <si>
+    <t>плохо учится</t>
+  </si>
+  <si>
     <t>не любит учиться</t>
   </si>
   <si>
-    <t>мало читает и учится на пятёрки и четвёрки</t>
-  </si>
-  <si>
-    <t>не уважает учителей не любит учится</t>
-  </si>
-  <si>
-    <t>уважает учителей и дружит с одноклассниками</t>
-  </si>
-  <si>
-    <t>не уважает учителей и не дружит с одноклассниками</t>
-  </si>
-  <si>
-    <t>не любит учиться и мало учится</t>
-  </si>
-  <si>
-    <t>знает математику и физику на отлично</t>
-  </si>
-  <si>
-    <t>ходит на руках</t>
-  </si>
-  <si>
-    <t>стремится к знаниям</t>
-  </si>
-  <si>
-    <t>не стремится к знаниям</t>
-  </si>
-  <si>
-    <t>любит читать</t>
-  </si>
-  <si>
-    <t>не любит читать</t>
-  </si>
-  <si>
-    <t>хорошо учится</t>
-  </si>
-  <si>
-    <t>не хорошо учиться</t>
-  </si>
-  <si>
-    <t>не знаю</t>
-  </si>
-  <si>
-    <t>обычный человек</t>
-  </si>
-  <si>
-    <t>ходит в школу</t>
-  </si>
-  <si>
-    <t>носит школьную форму</t>
-  </si>
-  <si>
-    <t>ходит в чистой одежде</t>
-  </si>
-  <si>
-    <t>спит ночью</t>
-  </si>
-  <si>
-    <t>не отвлекается на игры</t>
-  </si>
-  <si>
-    <t>не пропускает школьные уроки</t>
-  </si>
-  <si>
-    <t>прогуливает школьные уроки</t>
-  </si>
-  <si>
-    <t>любит литературу и алгебру</t>
-  </si>
-  <si>
-    <t>не любит литературу и алгебру</t>
-  </si>
-  <si>
-    <t>не любит хулиганов</t>
-  </si>
-  <si>
-    <t>чистит обувь перед школой</t>
-  </si>
-  <si>
-    <t>любит изучать что-то новое</t>
-  </si>
-  <si>
-    <t>не любит изучать что-то новое</t>
-  </si>
-  <si>
-    <t>любит спорт</t>
-  </si>
-  <si>
-    <t>grade2</t>
-  </si>
-  <si>
-    <t>grade3</t>
-  </si>
-  <si>
-    <t>grade4</t>
-  </si>
-  <si>
-    <t>не обычный человек</t>
-  </si>
-  <si>
-    <t>любит химию и физику</t>
-  </si>
-  <si>
-    <t>не любит химию и физику</t>
-  </si>
-  <si>
-    <t>много делает для школы, учителей и одноклассников</t>
-  </si>
-  <si>
-    <t>мало делает для школы, учителей и одноклассников</t>
-  </si>
-  <si>
-    <t>плохо знает математику и физику</t>
-  </si>
-  <si>
-    <t>хорошо знает математику</t>
-  </si>
-  <si>
-    <t>плохо с математикой</t>
-  </si>
-  <si>
-    <t>любит изучать литературу</t>
-  </si>
-  <si>
-    <t>любит изучать физику</t>
-  </si>
-  <si>
-    <t>не любит учить физику</t>
-  </si>
-  <si>
-    <t>не любит читать литературу</t>
+    <t>не любит учителей</t>
+  </si>
+  <si>
+    <t>любит учителей</t>
+  </si>
+  <si>
+    <t>усердно учится</t>
+  </si>
+  <si>
+    <t>не усердно учится</t>
+  </si>
+  <si>
+    <t>долго учится</t>
+  </si>
+  <si>
+    <t>не долго учится</t>
+  </si>
+  <si>
+    <t>долго и усердно учится</t>
+  </si>
+  <si>
+    <t>плохо знает математику</t>
+  </si>
+  <si>
+    <t>любит литературу</t>
+  </si>
+  <si>
+    <t>не любит литературу</t>
+  </si>
+  <si>
+    <t>любит химию</t>
+  </si>
+  <si>
+    <t>не любит химию</t>
+  </si>
+  <si>
+    <t>знает физику на отлично</t>
+  </si>
+  <si>
+    <t>плохо знает физику</t>
+  </si>
+  <si>
+    <t>любит алгебру</t>
+  </si>
+  <si>
+    <t>не любит алгебру</t>
+  </si>
+  <si>
+    <t>любит физику</t>
+  </si>
+  <si>
+    <t>не любит физику</t>
+  </si>
+  <si>
+    <t>знает математику на отлично</t>
+  </si>
+  <si>
+    <t>любит математику</t>
+  </si>
+  <si>
+    <t>не любит математику</t>
+  </si>
+  <si>
+    <t>понятно объясняет</t>
+  </si>
+  <si>
+    <t>не понятно объясняет</t>
+  </si>
+  <si>
+    <t>привлекает нас спорту</t>
+  </si>
+  <si>
+    <t>не привлекает нас спорту</t>
+  </si>
+  <si>
+    <t>увлекает нас опытами</t>
+  </si>
+  <si>
+    <t>не увлекает нас опытами</t>
+  </si>
+  <si>
+    <t>демонстрирует опыты</t>
+  </si>
+  <si>
+    <t>не демонстрирует опыты</t>
+  </si>
+  <si>
+    <t>уважает ученика</t>
+  </si>
+  <si>
+    <t>по доброму относится к ученику</t>
+  </si>
+  <si>
+    <t>не уважает ученика</t>
+  </si>
+  <si>
+    <t>плохо относится к ученику</t>
+  </si>
+  <si>
+    <t>по доброму относится к классу</t>
+  </si>
+  <si>
+    <t>плохо относится к классу</t>
+  </si>
+  <si>
+    <t>мужчина</t>
+  </si>
+  <si>
+    <t>женщина</t>
+  </si>
+  <si>
+    <t>молодой</t>
+  </si>
+  <si>
+    <t>в возрасте</t>
+  </si>
+  <si>
+    <t>старый</t>
+  </si>
+  <si>
+    <t>умный</t>
+  </si>
+  <si>
+    <t>глупый</t>
+  </si>
+  <si>
+    <t>честный</t>
+  </si>
+  <si>
+    <t>не честный</t>
+  </si>
+  <si>
+    <t>ответственный</t>
+  </si>
+  <si>
+    <t>безответственный</t>
+  </si>
+  <si>
+    <t>помогает</t>
+  </si>
+  <si>
+    <t>не помогает</t>
+  </si>
+  <si>
+    <t>вызывает к доске</t>
+  </si>
+  <si>
+    <t>не вызывает к доске</t>
+  </si>
+  <si>
+    <t>внятно говорит</t>
+  </si>
+  <si>
+    <t>не внятно говорит</t>
+  </si>
+  <si>
+    <t>не понятно говорит</t>
+  </si>
+  <si>
+    <t>понятно говорит</t>
+  </si>
+  <si>
+    <t>готов объяснить</t>
+  </si>
+  <si>
+    <t>не готов объяснить</t>
+  </si>
+  <si>
+    <t>ставит четвёрки</t>
+  </si>
+  <si>
+    <t>ставит пятёрки</t>
+  </si>
+  <si>
+    <t>ставит тройки</t>
+  </si>
+  <si>
+    <t>ставит двойки</t>
+  </si>
+  <si>
+    <t>05. Больше всего мне школа нравится за то, что...</t>
+  </si>
+  <si>
+    <t>здесь я встречаюсь с  друзьями</t>
+  </si>
+  <si>
+    <t>здесь я не встречаюсь с  друзьями</t>
+  </si>
+  <si>
+    <t>сюда нужно приходить почти каждый день</t>
+  </si>
+  <si>
+    <t>сюда можно не приходить</t>
+  </si>
+  <si>
+    <t>здесь мы занимаемся спортом</t>
+  </si>
+  <si>
+    <t>здесь мы бездельничаем</t>
+  </si>
+  <si>
+    <t>здесь мы занимаемся физкультурой</t>
+  </si>
+  <si>
+    <t>здесь много людей</t>
+  </si>
+  <si>
+    <t>здесь не много людей</t>
+  </si>
+  <si>
+    <t>здесь мы узнаём что-то новое</t>
+  </si>
+  <si>
+    <t>здесь мы не узнаём ничего нового</t>
+  </si>
+  <si>
+    <t>дает хорошие знания</t>
+  </si>
+  <si>
+    <t>дает плохие знания</t>
+  </si>
+  <si>
+    <t>добрые и отзывчивые учителя</t>
+  </si>
+  <si>
+    <t>злые и не отзывчивые учителя</t>
+  </si>
+  <si>
+    <t>много хороших учителей</t>
+  </si>
+  <si>
+    <t>много разных конкурсов</t>
+  </si>
+  <si>
+    <t>мало разных конкурсов</t>
+  </si>
+  <si>
+    <t>мало хороших учителей</t>
+  </si>
+  <si>
+    <t>знает математику отлично</t>
+  </si>
+  <si>
+    <t>03. Больше всего я люблю, когда учитель...</t>
+  </si>
+  <si>
+    <t>04. Больше всего я не люблю, когда учитель...</t>
+  </si>
+  <si>
+    <t>здесь учатся мои друзья</t>
+  </si>
+  <si>
+    <t>здесь нет моих друзей</t>
+  </si>
+  <si>
+    <t>здесь интересно учиться</t>
+  </si>
+  <si>
+    <t>здесь скучно находиться</t>
+  </si>
+  <si>
+    <t>не дает новых знаний</t>
+  </si>
+  <si>
+    <t>здесь учителя которые помогают</t>
+  </si>
+  <si>
+    <t>здесь учителя которые не помогают</t>
+  </si>
+  <si>
+    <t>в ней рады всем</t>
+  </si>
+  <si>
+    <t>в ней не рады никому</t>
   </si>
 </sst>
 </file>
@@ -352,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,9 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,11 +924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,19 +963,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,19 +983,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-1</v>
+        <v>67</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -725,19 +1003,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1">
         <v>-1</v>
       </c>
       <c r="D4" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>-1</v>
       </c>
       <c r="F4" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -745,19 +1023,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -765,19 +1043,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1</v>
       </c>
       <c r="D6" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,19 +1063,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -805,19 +1083,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-1</v>
       </c>
       <c r="D8" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -825,19 +1103,19 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-1</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,19 +1123,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1</v>
       </c>
       <c r="D10" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,19 +1143,19 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-1</v>
       </c>
       <c r="D11" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>-1</v>
       </c>
       <c r="F11" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -885,19 +1163,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,19 +1183,19 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,19 +1203,19 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,19 +1223,19 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4">
-        <v>-1</v>
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,19 +1243,19 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -985,19 +1263,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,19 +1283,19 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
         <v>-1</v>
       </c>
       <c r="D18" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>-1</v>
       </c>
       <c r="F18" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,19 +1303,19 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,19 +1323,19 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4">
-        <v>-1</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <v>-1</v>
       </c>
       <c r="F20" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,19 +1343,19 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,19 +1363,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-1</v>
       </c>
       <c r="D22" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1105,19 +1383,19 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1125,19 +1403,19 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1">
         <v>-1</v>
       </c>
       <c r="D24" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <v>-1</v>
       </c>
       <c r="F24" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,19 +1423,19 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-1</v>
       </c>
       <c r="D25" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F25" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1165,19 +1443,19 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,19 +1463,19 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,19 +1483,19 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-1</v>
       </c>
       <c r="D28" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,19 +1503,19 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4">
-        <v>-1</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1245,19 +1523,19 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-1</v>
       </c>
       <c r="D30" s="1">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F30" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,19 +1543,19 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4">
-        <v>-1</v>
+        <v>52</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1285,19 +1563,19 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,19 +1583,19 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4">
-        <v>-1</v>
+        <v>54</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1325,19 +1603,19 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="4">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1">
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E34" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,19 +1623,19 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="4">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,19 +1643,19 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="4">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1">
         <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,19 +1663,19 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="4">
+        <v>143</v>
+      </c>
+      <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,19 +1683,19 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="4">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,19 +1703,19 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1</v>
       </c>
       <c r="D39" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,19 +1723,19 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="4">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,19 +1743,19 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="4">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1">
         <v>-1</v>
       </c>
       <c r="D41" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F41" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1485,19 +1763,19 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,19 +1783,19 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-1</v>
       </c>
       <c r="D43" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F43" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1525,19 +1803,19 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="4">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1">
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1545,19 +1823,19 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1567,17 +1845,17 @@
       <c r="B46" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="4">
-        <v>-1</v>
+      <c r="C46" s="1">
+        <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,19 +1863,19 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="4">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1">
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,19 +1883,19 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="4">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1">
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,19 +1903,19 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="4">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1">
         <v>0</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,19 +1923,19 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
       </c>
       <c r="D50" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,19 +1943,19 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-1</v>
       </c>
       <c r="D51" s="1">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1685,19 +1963,19 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="4">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,19 +1983,19 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="4">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1725,19 +2003,19 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="4">
+        <v>31</v>
+      </c>
+      <c r="C54" s="1">
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1745,19 +2023,19 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
       </c>
       <c r="D55" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,19 +2043,19 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-1</v>
       </c>
       <c r="D56" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,19 +2063,19 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="4">
+        <v>71</v>
+      </c>
+      <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,19 +2083,19 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,19 +2103,19 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="4">
-        <v>-1</v>
+        <v>34</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,19 +2123,19 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1865,23 +2143,4023 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>56</v>
+      </c>
+      <c r="B98" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="4">
-        <v>-1</v>
-      </c>
-      <c r="D61" s="1">
-        <v>-5</v>
-      </c>
-      <c r="E61" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>-1</v>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" t="s">
+        <v>72</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" t="s">
+        <v>35</v>
+      </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134" t="s">
+        <v>37</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" t="s">
+        <v>73</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>56</v>
+      </c>
+      <c r="B137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>56</v>
+      </c>
+      <c r="B139" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+      <c r="B140" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F140" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B143" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>56</v>
+      </c>
+      <c r="B144" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>56</v>
+      </c>
+      <c r="B146" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>56</v>
+      </c>
+      <c r="B147" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>56</v>
+      </c>
+      <c r="B149" t="s">
+        <v>76</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>56</v>
+      </c>
+      <c r="B150" t="s">
+        <v>77</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" t="s">
+        <v>78</v>
+      </c>
+      <c r="C151" s="1">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>56</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" s="1">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153" t="s">
+        <v>80</v>
+      </c>
+      <c r="C153" s="1">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="1">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>144</v>
+      </c>
+      <c r="B156" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1">
+        <v>1</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>144</v>
+      </c>
+      <c r="B157" t="s">
+        <v>85</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0</v>
+      </c>
+      <c r="D157" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E157" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>144</v>
+      </c>
+      <c r="B158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>144</v>
+      </c>
+      <c r="B159" t="s">
+        <v>87</v>
+      </c>
+      <c r="C159" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D159" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>144</v>
+      </c>
+      <c r="B160" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D161" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>144</v>
+      </c>
+      <c r="B162" t="s">
+        <v>90</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D163" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0</v>
+      </c>
+      <c r="D165" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>144</v>
+      </c>
+      <c r="B166" t="s">
+        <v>93</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>144</v>
+      </c>
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>144</v>
+      </c>
+      <c r="B168" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" s="1">
+        <v>0</v>
+      </c>
+      <c r="D169" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" t="s">
+        <v>98</v>
+      </c>
+      <c r="C170" s="1">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>144</v>
+      </c>
+      <c r="B171" t="s">
+        <v>99</v>
+      </c>
+      <c r="C171" s="1">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" t="s">
+        <v>100</v>
+      </c>
+      <c r="C172" s="1">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1">
+        <v>1</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>144</v>
+      </c>
+      <c r="B173" t="s">
+        <v>101</v>
+      </c>
+      <c r="C173" s="1">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>144</v>
+      </c>
+      <c r="B174" t="s">
+        <v>102</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>144</v>
+      </c>
+      <c r="B175" t="s">
+        <v>103</v>
+      </c>
+      <c r="C175" s="1">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>144</v>
+      </c>
+      <c r="B176" t="s">
+        <v>104</v>
+      </c>
+      <c r="C176" s="1">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>144</v>
+      </c>
+      <c r="B177" t="s">
+        <v>105</v>
+      </c>
+      <c r="C177" s="1">
+        <v>0</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>144</v>
+      </c>
+      <c r="B178" t="s">
+        <v>106</v>
+      </c>
+      <c r="C178" s="1">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>144</v>
+      </c>
+      <c r="B179" t="s">
+        <v>107</v>
+      </c>
+      <c r="C179" s="1">
+        <v>0</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>144</v>
+      </c>
+      <c r="B180" t="s">
+        <v>108</v>
+      </c>
+      <c r="C180" s="1">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>144</v>
+      </c>
+      <c r="B181" t="s">
+        <v>109</v>
+      </c>
+      <c r="C181" s="1">
+        <v>0</v>
+      </c>
+      <c r="D181" s="1">
+        <v>1</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>144</v>
+      </c>
+      <c r="B182" t="s">
+        <v>110</v>
+      </c>
+      <c r="C182" s="1">
+        <v>0</v>
+      </c>
+      <c r="D182" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>144</v>
+      </c>
+      <c r="B183" t="s">
+        <v>111</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <v>1</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>144</v>
+      </c>
+      <c r="B184" t="s">
+        <v>112</v>
+      </c>
+      <c r="C184" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D184" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>144</v>
+      </c>
+      <c r="B185" t="s">
+        <v>113</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>144</v>
+      </c>
+      <c r="B186" t="s">
+        <v>114</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E186" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>144</v>
+      </c>
+      <c r="B187" t="s">
+        <v>116</v>
+      </c>
+      <c r="C187" s="1">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>144</v>
+      </c>
+      <c r="B188" t="s">
+        <v>115</v>
+      </c>
+      <c r="C188" s="1">
+        <v>0</v>
+      </c>
+      <c r="D188" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E188" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>144</v>
+      </c>
+      <c r="B189" t="s">
+        <v>117</v>
+      </c>
+      <c r="C189" s="1">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" t="s">
+        <v>118</v>
+      </c>
+      <c r="C190" s="1">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E190" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>144</v>
+      </c>
+      <c r="B191" t="s">
+        <v>120</v>
+      </c>
+      <c r="C191" s="1">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+      <c r="E191" s="1">
+        <v>1</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>144</v>
+      </c>
+      <c r="B192" t="s">
+        <v>119</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>144</v>
+      </c>
+      <c r="B193" t="s">
+        <v>121</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0</v>
+      </c>
+      <c r="D193" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>144</v>
+      </c>
+      <c r="B194" t="s">
+        <v>122</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0</v>
+      </c>
+      <c r="D194" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E194" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>145</v>
+      </c>
+      <c r="B195" t="s">
+        <v>84</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E195" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>145</v>
+      </c>
+      <c r="B196" t="s">
+        <v>85</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1</v>
+      </c>
+      <c r="F196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>145</v>
+      </c>
+      <c r="B197" t="s">
+        <v>86</v>
+      </c>
+      <c r="C197" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>145</v>
+      </c>
+      <c r="B198" t="s">
+        <v>87</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1</v>
+      </c>
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>145</v>
+      </c>
+      <c r="B199" t="s">
+        <v>88</v>
+      </c>
+      <c r="C199" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>145</v>
+      </c>
+      <c r="B200" t="s">
+        <v>89</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>1</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>145</v>
+      </c>
+      <c r="B201" t="s">
+        <v>90</v>
+      </c>
+      <c r="C201" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D201" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E201" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>145</v>
+      </c>
+      <c r="B202" t="s">
+        <v>91</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>145</v>
+      </c>
+      <c r="B203" t="s">
+        <v>92</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0</v>
+      </c>
+      <c r="D203" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>145</v>
+      </c>
+      <c r="B204" t="s">
+        <v>94</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>145</v>
+      </c>
+      <c r="B205" t="s">
+        <v>93</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0</v>
+      </c>
+      <c r="D205" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>145</v>
+      </c>
+      <c r="B206" t="s">
+        <v>95</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0</v>
+      </c>
+      <c r="D206" s="1">
+        <v>1</v>
+      </c>
+      <c r="E206" s="1">
+        <v>0</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>145</v>
+      </c>
+      <c r="B207" t="s">
+        <v>96</v>
+      </c>
+      <c r="C207" s="1">
+        <v>0</v>
+      </c>
+      <c r="D207" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>145</v>
+      </c>
+      <c r="B208" t="s">
+        <v>97</v>
+      </c>
+      <c r="C208" s="1">
+        <v>0</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1</v>
+      </c>
+      <c r="E208" s="1">
+        <v>0</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>145</v>
+      </c>
+      <c r="B209" t="s">
+        <v>98</v>
+      </c>
+      <c r="C209" s="1">
+        <v>0</v>
+      </c>
+      <c r="D209" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E209" s="1">
+        <v>0</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>145</v>
+      </c>
+      <c r="B210" t="s">
+        <v>99</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0</v>
+      </c>
+      <c r="D210" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E210" s="1">
+        <v>0</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>145</v>
+      </c>
+      <c r="B211" t="s">
+        <v>100</v>
+      </c>
+      <c r="C211" s="1">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>145</v>
+      </c>
+      <c r="B212" t="s">
+        <v>101</v>
+      </c>
+      <c r="C212" s="1">
+        <v>0</v>
+      </c>
+      <c r="D212" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E212" s="1">
+        <v>0</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>145</v>
+      </c>
+      <c r="B213" t="s">
+        <v>102</v>
+      </c>
+      <c r="C213" s="1">
+        <v>0</v>
+      </c>
+      <c r="D213" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E213" s="1">
+        <v>0</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>145</v>
+      </c>
+      <c r="B214" t="s">
+        <v>103</v>
+      </c>
+      <c r="C214" s="1">
+        <v>0</v>
+      </c>
+      <c r="D214" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E214" s="1">
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>145</v>
+      </c>
+      <c r="B215" t="s">
+        <v>104</v>
+      </c>
+      <c r="C215" s="1">
+        <v>0</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+      <c r="E215" s="1">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>145</v>
+      </c>
+      <c r="B216" t="s">
+        <v>105</v>
+      </c>
+      <c r="C216" s="1">
+        <v>0</v>
+      </c>
+      <c r="D216" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E216" s="1">
+        <v>0</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>145</v>
+      </c>
+      <c r="B217" t="s">
+        <v>106</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>145</v>
+      </c>
+      <c r="B218" t="s">
+        <v>107</v>
+      </c>
+      <c r="C218" s="1">
+        <v>0</v>
+      </c>
+      <c r="D218" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E218" s="1">
+        <v>0</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>145</v>
+      </c>
+      <c r="B219" t="s">
+        <v>108</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0</v>
+      </c>
+      <c r="D219" s="1">
+        <v>1</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>145</v>
+      </c>
+      <c r="B220" t="s">
+        <v>109</v>
+      </c>
+      <c r="C220" s="1">
+        <v>0</v>
+      </c>
+      <c r="D220" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E220" s="1">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>145</v>
+      </c>
+      <c r="B221" t="s">
+        <v>110</v>
+      </c>
+      <c r="C221" s="1">
+        <v>0</v>
+      </c>
+      <c r="D221" s="1">
+        <v>1</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>145</v>
+      </c>
+      <c r="B222" t="s">
+        <v>111</v>
+      </c>
+      <c r="C222" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D222" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E222" s="1">
+        <v>0</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>145</v>
+      </c>
+      <c r="B223" t="s">
+        <v>112</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D223" s="1">
+        <v>1</v>
+      </c>
+      <c r="E223" s="1">
+        <v>0</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>145</v>
+      </c>
+      <c r="B224" t="s">
+        <v>113</v>
+      </c>
+      <c r="C224" s="1">
+        <v>0</v>
+      </c>
+      <c r="D224" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E224" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>145</v>
+      </c>
+      <c r="B225" t="s">
+        <v>114</v>
+      </c>
+      <c r="C225" s="1">
+        <v>0</v>
+      </c>
+      <c r="D225" s="1">
+        <v>1</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>145</v>
+      </c>
+      <c r="B226" t="s">
+        <v>116</v>
+      </c>
+      <c r="C226" s="1">
+        <v>0</v>
+      </c>
+      <c r="D226" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E226" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>145</v>
+      </c>
+      <c r="B227" t="s">
+        <v>115</v>
+      </c>
+      <c r="C227" s="1">
+        <v>0</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>145</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
+      <c r="D228" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E228" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>145</v>
+      </c>
+      <c r="B229" t="s">
+        <v>118</v>
+      </c>
+      <c r="C229" s="1">
+        <v>0</v>
+      </c>
+      <c r="D229" s="1">
+        <v>1</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>145</v>
+      </c>
+      <c r="B230" t="s">
+        <v>120</v>
+      </c>
+      <c r="C230" s="1">
+        <v>0</v>
+      </c>
+      <c r="D230" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>145</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
+      <c r="C231" s="1">
+        <v>0</v>
+      </c>
+      <c r="D231" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>145</v>
+      </c>
+      <c r="B232" t="s">
+        <v>121</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>145</v>
+      </c>
+      <c r="B233" t="s">
+        <v>122</v>
+      </c>
+      <c r="C233" s="1">
+        <v>0</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>123</v>
+      </c>
+      <c r="B234" t="s">
+        <v>146</v>
+      </c>
+      <c r="C234" s="1">
+        <v>0</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>123</v>
+      </c>
+      <c r="B235" t="s">
+        <v>147</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0</v>
+      </c>
+      <c r="D235" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>123</v>
+      </c>
+      <c r="B236" t="s">
+        <v>124</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0</v>
+      </c>
+      <c r="D236" s="1">
+        <v>1</v>
+      </c>
+      <c r="E236" s="1">
+        <v>0</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>123</v>
+      </c>
+      <c r="B237" t="s">
+        <v>125</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0</v>
+      </c>
+      <c r="D237" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>123</v>
+      </c>
+      <c r="B238" t="s">
+        <v>148</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238" s="1">
+        <v>0</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>123</v>
+      </c>
+      <c r="B239" t="s">
+        <v>149</v>
+      </c>
+      <c r="C239" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D239" s="1">
+        <v>0</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>123</v>
+      </c>
+      <c r="B240" t="s">
+        <v>126</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" s="1">
+        <v>0</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+      <c r="F240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>123</v>
+      </c>
+      <c r="B241" t="s">
+        <v>127</v>
+      </c>
+      <c r="C241" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D241" s="1">
+        <v>0</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>123</v>
+      </c>
+      <c r="B242" t="s">
+        <v>128</v>
+      </c>
+      <c r="C242" s="1">
+        <v>0</v>
+      </c>
+      <c r="D242" s="1">
+        <v>0</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>123</v>
+      </c>
+      <c r="B243" t="s">
+        <v>129</v>
+      </c>
+      <c r="C243" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D243" s="1">
+        <v>0</v>
+      </c>
+      <c r="E243" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>123</v>
+      </c>
+      <c r="B244" t="s">
+        <v>130</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" s="1">
+        <v>0</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>123</v>
+      </c>
+      <c r="B245" t="s">
+        <v>131</v>
+      </c>
+      <c r="C245" s="1">
+        <v>0</v>
+      </c>
+      <c r="D245" s="1">
+        <v>1</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>123</v>
+      </c>
+      <c r="B246" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0</v>
+      </c>
+      <c r="D246" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>123</v>
+      </c>
+      <c r="B247" t="s">
+        <v>133</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D247" s="1">
+        <v>0</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>123</v>
+      </c>
+      <c r="B248" t="s">
+        <v>134</v>
+      </c>
+      <c r="C248" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D248" s="1">
+        <v>0</v>
+      </c>
+      <c r="E248" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>123</v>
+      </c>
+      <c r="B249" t="s">
+        <v>135</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D249" s="1">
+        <v>0</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>123</v>
+      </c>
+      <c r="B250" t="s">
+        <v>136</v>
+      </c>
+      <c r="C250" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D250" s="1">
+        <v>0</v>
+      </c>
+      <c r="E250" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>123</v>
+      </c>
+      <c r="B251" t="s">
+        <v>150</v>
+      </c>
+      <c r="C251" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D251" s="1">
+        <v>0</v>
+      </c>
+      <c r="E251" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>123</v>
+      </c>
+      <c r="B252" t="s">
+        <v>137</v>
+      </c>
+      <c r="C252" s="1">
+        <v>0</v>
+      </c>
+      <c r="D252" s="1">
+        <v>1</v>
+      </c>
+      <c r="E252" s="1">
+        <v>0</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>123</v>
+      </c>
+      <c r="B253" t="s">
+        <v>138</v>
+      </c>
+      <c r="C253" s="1">
+        <v>0</v>
+      </c>
+      <c r="D253" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>123</v>
+      </c>
+      <c r="B254" t="s">
+        <v>151</v>
+      </c>
+      <c r="C254" s="1">
+        <v>0</v>
+      </c>
+      <c r="D254" s="1">
+        <v>1</v>
+      </c>
+      <c r="E254" s="1">
+        <v>0</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>123</v>
+      </c>
+      <c r="B255" t="s">
+        <v>152</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0</v>
+      </c>
+      <c r="D255" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>123</v>
+      </c>
+      <c r="B256" t="s">
+        <v>153</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D256" s="1">
+        <v>0</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>123</v>
+      </c>
+      <c r="B257" t="s">
+        <v>154</v>
+      </c>
+      <c r="C257" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D257" s="1">
+        <v>0</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>123</v>
+      </c>
+      <c r="B258" t="s">
+        <v>139</v>
+      </c>
+      <c r="C258" s="1">
+        <v>0</v>
+      </c>
+      <c r="D258" s="1">
+        <v>1</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>123</v>
+      </c>
+      <c r="B259" t="s">
+        <v>142</v>
+      </c>
+      <c r="C259" s="1">
+        <v>0</v>
+      </c>
+      <c r="D259" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>123</v>
+      </c>
+      <c r="B260" t="s">
+        <v>140</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+      <c r="D260" s="1">
+        <v>0</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0</v>
+      </c>
+      <c r="F260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>123</v>
+      </c>
+      <c r="B261" t="s">
+        <v>141</v>
+      </c>
+      <c r="C261" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D261" s="1">
+        <v>0</v>
+      </c>
+      <c r="E261" s="1">
+        <v>0</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F261" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
